--- a/world-ports.xlsx
+++ b/world-ports.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="ports" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -85,6 +85,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -105,12 +106,14 @@
       <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -287,7 +290,7 @@
   <sheetFormatPr defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="28.53"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="2" width="11.52"/>
